--- a/night-big-wind/TNA_1839.xlsx
+++ b/night-big-wind/TNA_1839.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/WORK/BIG-WIND/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/night-big-wind/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91454EBD-5032-034D-858E-468C2774F067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F835D1-C6A8-A949-B93D-FB30C74A033C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14840" yWindow="500" windowWidth="21920" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TNA_1839" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="855">
   <si>
     <t>Citable Reference</t>
   </si>
@@ -2561,6 +2561,30 @@
   </si>
   <si>
     <t>7 Jan 1839 - 23 Feb 1841</t>
+  </si>
+  <si>
+    <t>Barometer</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Wales</t>
   </si>
 </sst>
 </file>
@@ -2703,7 +2727,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2895,6 +2919,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -3056,7 +3092,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -3067,6 +3103,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3112,7 +3159,37 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3127,6 +3204,21 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3438,24 +3530,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I169"/>
+  <dimension ref="A1:L169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.1640625" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="101.1640625" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="7"/>
+    <col min="9" max="9" width="15.1640625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="16.1640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="101.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3468,246 +3562,318 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5">
+      <c r="I2" s="5">
         <v>18380101</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5">
+      <c r="K2" s="5">
         <v>18411231</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="5">
+      <c r="I3" s="5">
         <v>18370101</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="5">
+      <c r="K3" s="5">
         <v>18391231</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="5">
+      <c r="I4" s="5">
         <v>18370720</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="5">
+      <c r="K4" s="5">
         <v>18400508</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="H5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="5">
+      <c r="I5" s="5">
         <v>18360623</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="5">
+      <c r="K5" s="5">
         <v>18390625</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="11" t="s">
         <v>36</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="5">
+      <c r="I6" s="5">
         <v>18360104</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="5">
+      <c r="K6" s="5">
         <v>18390618</v>
       </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="H7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="5">
+      <c r="I7" s="5">
         <v>18370101</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="5">
+      <c r="K7" s="5">
         <v>18430913</v>
       </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="H8" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="5">
+      <c r="I8" s="5">
         <v>18350414</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="5">
+      <c r="K8" s="5">
         <v>18390403</v>
       </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D9" t="s">
         <v>54</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="H9" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="5">
+      <c r="I9" s="5">
         <v>18360405</v>
       </c>
-      <c r="G9" t="s">
+      <c r="J9" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="5">
+      <c r="K9" s="5">
         <v>18411113</v>
       </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -3717,23 +3883,23 @@
       <c r="C10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="5">
+      <c r="I10" s="5">
         <v>18370215</v>
       </c>
-      <c r="G10" t="s">
+      <c r="J10" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="5">
+      <c r="K10" s="5">
         <v>18390702</v>
       </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -3746,23 +3912,23 @@
       <c r="D11" t="s">
         <v>66</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="5">
+      <c r="I11" s="5">
         <v>18351009</v>
       </c>
-      <c r="G11" t="s">
+      <c r="J11" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="5">
+      <c r="K11" s="5">
         <v>18390129</v>
       </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -3775,23 +3941,23 @@
       <c r="D12" t="s">
         <v>37</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="5">
+      <c r="I12" s="5">
         <v>18351106</v>
       </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="5">
+      <c r="K12" s="5">
         <v>18420212</v>
       </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -3804,23 +3970,23 @@
       <c r="D13" t="s">
         <v>17</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="5">
+      <c r="I13" s="5">
         <v>18361013</v>
       </c>
-      <c r="G13" t="s">
+      <c r="J13" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="5">
+      <c r="K13" s="5">
         <v>18390530</v>
       </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -3833,23 +3999,23 @@
       <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="5">
+      <c r="I14" s="5">
         <v>18360131</v>
       </c>
-      <c r="G14" t="s">
+      <c r="J14" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="5">
+      <c r="K14" s="5">
         <v>18411031</v>
       </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -3862,23 +4028,23 @@
       <c r="D15" t="s">
         <v>17</v>
       </c>
-      <c r="E15" t="s">
+      <c r="H15" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="5">
+      <c r="I15" s="5">
         <v>18360712</v>
       </c>
-      <c r="G15" t="s">
+      <c r="J15" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="5">
+      <c r="K15" s="5">
         <v>18390530</v>
       </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>89</v>
       </c>
@@ -3888,23 +4054,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E16" t="s">
+      <c r="H16" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="5">
+      <c r="I16" s="5">
         <v>18361201</v>
       </c>
-      <c r="G16" t="s">
+      <c r="J16" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="5">
+      <c r="K16" s="5">
         <v>18390612</v>
       </c>
-      <c r="I16" t="s">
+      <c r="L16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>94</v>
       </c>
@@ -3914,23 +4080,23 @@
       <c r="C17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E17" t="s">
+      <c r="H17" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="5">
+      <c r="I17" s="5">
         <v>18380206</v>
       </c>
-      <c r="G17" t="s">
+      <c r="J17" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="5">
+      <c r="K17" s="5">
         <v>18400531</v>
       </c>
-      <c r="I17" t="s">
+      <c r="L17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>99</v>
       </c>
@@ -3940,23 +4106,23 @@
       <c r="C18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="5">
+      <c r="I18" s="5">
         <v>18360327</v>
       </c>
-      <c r="G18" t="s">
+      <c r="J18" t="s">
         <v>102</v>
       </c>
-      <c r="H18" s="5">
+      <c r="K18" s="5">
         <v>18391123</v>
       </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -3969,23 +4135,23 @@
       <c r="D19" t="s">
         <v>37</v>
       </c>
-      <c r="E19" t="s">
+      <c r="H19" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="5">
+      <c r="I19" s="5">
         <v>18360718</v>
       </c>
-      <c r="G19" t="s">
+      <c r="J19" t="s">
         <v>107</v>
       </c>
-      <c r="H19" s="5">
+      <c r="K19" s="5">
         <v>18390118</v>
       </c>
-      <c r="I19" t="s">
+      <c r="L19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>109</v>
       </c>
@@ -3998,23 +4164,23 @@
       <c r="D20" t="s">
         <v>37</v>
       </c>
-      <c r="E20" t="s">
+      <c r="H20" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="5">
+      <c r="I20" s="5">
         <v>18370719</v>
       </c>
-      <c r="G20" t="s">
+      <c r="J20" t="s">
         <v>112</v>
       </c>
-      <c r="H20" s="5">
+      <c r="K20" s="5">
         <v>18390114</v>
       </c>
-      <c r="I20" t="s">
+      <c r="L20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>114</v>
       </c>
@@ -4027,23 +4193,23 @@
       <c r="D21" t="s">
         <v>17</v>
       </c>
-      <c r="E21" t="s">
+      <c r="H21" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="5">
+      <c r="I21" s="5">
         <v>18360316</v>
       </c>
-      <c r="G21" t="s">
+      <c r="J21" t="s">
         <v>117</v>
       </c>
-      <c r="H21" s="5">
+      <c r="K21" s="5">
         <v>18390630</v>
       </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>119</v>
       </c>
@@ -4056,23 +4222,23 @@
       <c r="D22" t="s">
         <v>37</v>
       </c>
-      <c r="E22" t="s">
+      <c r="H22" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="5">
+      <c r="I22" s="5">
         <v>18380922</v>
       </c>
-      <c r="G22" t="s">
+      <c r="J22" t="s">
         <v>122</v>
       </c>
-      <c r="H22" s="5">
+      <c r="K22" s="5">
         <v>18410831</v>
       </c>
-      <c r="I22" t="s">
+      <c r="L22" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>124</v>
       </c>
@@ -4085,23 +4251,23 @@
       <c r="D23" t="s">
         <v>37</v>
       </c>
-      <c r="E23" t="s">
+      <c r="H23" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="5">
+      <c r="I23" s="5">
         <v>18361114</v>
       </c>
-      <c r="G23" t="s">
+      <c r="J23" t="s">
         <v>127</v>
       </c>
-      <c r="H23" s="5">
+      <c r="K23" s="5">
         <v>18420408</v>
       </c>
-      <c r="I23" t="s">
+      <c r="L23" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>129</v>
       </c>
@@ -4111,23 +4277,23 @@
       <c r="C24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E24" t="s">
+      <c r="H24" t="s">
         <v>131</v>
       </c>
-      <c r="F24" s="5">
+      <c r="I24" s="5">
         <v>18340725</v>
       </c>
-      <c r="G24" t="s">
+      <c r="J24" t="s">
         <v>132</v>
       </c>
-      <c r="H24" s="5">
+      <c r="K24" s="5">
         <v>18390131</v>
       </c>
-      <c r="I24" t="s">
+      <c r="L24" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>134</v>
       </c>
@@ -4140,23 +4306,23 @@
       <c r="D25" t="s">
         <v>17</v>
       </c>
-      <c r="E25" t="s">
+      <c r="H25" t="s">
         <v>136</v>
       </c>
-      <c r="F25" s="5">
+      <c r="I25" s="5">
         <v>18380217</v>
       </c>
-      <c r="G25" t="s">
+      <c r="J25" t="s">
         <v>137</v>
       </c>
-      <c r="H25" s="5">
+      <c r="K25" s="5">
         <v>18410313</v>
       </c>
-      <c r="I25" t="s">
+      <c r="L25" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -4169,23 +4335,23 @@
       <c r="D26" t="s">
         <v>37</v>
       </c>
-      <c r="E26" t="s">
+      <c r="H26" t="s">
         <v>141</v>
       </c>
-      <c r="F26" s="5">
+      <c r="I26" s="5">
         <v>18340901</v>
       </c>
-      <c r="G26" t="s">
+      <c r="J26" t="s">
         <v>142</v>
       </c>
-      <c r="H26" s="5">
+      <c r="K26" s="5">
         <v>18400915</v>
       </c>
-      <c r="I26" t="s">
+      <c r="L26" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>144</v>
       </c>
@@ -4195,23 +4361,23 @@
       <c r="C27" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E27" t="s">
+      <c r="H27" t="s">
         <v>146</v>
       </c>
-      <c r="F27" s="5">
+      <c r="I27" s="5">
         <v>18380701</v>
       </c>
-      <c r="G27" t="s">
+      <c r="J27" t="s">
         <v>117</v>
       </c>
-      <c r="H27" s="5">
+      <c r="K27" s="5">
         <v>18390630</v>
       </c>
-      <c r="I27" t="s">
+      <c r="L27" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>148</v>
       </c>
@@ -4224,23 +4390,23 @@
       <c r="D28" t="s">
         <v>37</v>
       </c>
-      <c r="E28" t="s">
+      <c r="H28" t="s">
         <v>150</v>
       </c>
-      <c r="F28" s="5">
+      <c r="I28" s="5">
         <v>18370416</v>
       </c>
-      <c r="G28" t="s">
+      <c r="J28" t="s">
         <v>151</v>
       </c>
-      <c r="H28" s="5">
+      <c r="K28" s="5">
         <v>18400701</v>
       </c>
-      <c r="I28" t="s">
+      <c r="L28" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>153</v>
       </c>
@@ -4253,23 +4419,23 @@
       <c r="D29" t="s">
         <v>37</v>
       </c>
-      <c r="E29" t="s">
+      <c r="H29" t="s">
         <v>155</v>
       </c>
-      <c r="F29" s="5">
+      <c r="I29" s="5">
         <v>18360310</v>
       </c>
-      <c r="G29" t="s">
+      <c r="J29" t="s">
         <v>156</v>
       </c>
-      <c r="H29" s="5">
+      <c r="K29" s="5">
         <v>18390331</v>
       </c>
-      <c r="I29" t="s">
+      <c r="L29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>158</v>
       </c>
@@ -4279,23 +4445,23 @@
       <c r="C30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E30" t="s">
+      <c r="H30" t="s">
         <v>160</v>
       </c>
-      <c r="F30" s="5">
+      <c r="I30" s="5">
         <v>18380115</v>
       </c>
-      <c r="G30" t="s">
+      <c r="J30" t="s">
         <v>161</v>
       </c>
-      <c r="H30" s="5">
+      <c r="K30" s="5">
         <v>18400629</v>
       </c>
-      <c r="I30" t="s">
+      <c r="L30" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>163</v>
       </c>
@@ -4308,23 +4474,23 @@
       <c r="D31" t="s">
         <v>165</v>
       </c>
-      <c r="E31" t="s">
+      <c r="H31" t="s">
         <v>166</v>
       </c>
-      <c r="F31" s="5">
+      <c r="I31" s="5">
         <v>18350418</v>
       </c>
-      <c r="G31" t="s">
+      <c r="J31" t="s">
         <v>167</v>
       </c>
-      <c r="H31" s="5">
+      <c r="K31" s="5">
         <v>18390102</v>
       </c>
-      <c r="I31" t="s">
+      <c r="L31" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>169</v>
       </c>
@@ -4337,23 +4503,23 @@
       <c r="D32" t="s">
         <v>165</v>
       </c>
-      <c r="E32" t="s">
+      <c r="H32" t="s">
         <v>172</v>
       </c>
-      <c r="F32" s="5">
+      <c r="I32" s="5">
         <v>18341208</v>
       </c>
-      <c r="G32" t="s">
+      <c r="J32" t="s">
         <v>173</v>
       </c>
-      <c r="H32" s="5">
+      <c r="K32" s="5">
         <v>18390501</v>
       </c>
-      <c r="I32" t="s">
+      <c r="L32" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>175</v>
       </c>
@@ -4366,23 +4532,23 @@
       <c r="D33" t="s">
         <v>177</v>
       </c>
-      <c r="E33" t="s">
+      <c r="H33" t="s">
         <v>178</v>
       </c>
-      <c r="F33" s="5">
+      <c r="I33" s="5">
         <v>18380803</v>
       </c>
-      <c r="G33" t="s">
+      <c r="J33" t="s">
         <v>179</v>
       </c>
-      <c r="H33" s="5">
+      <c r="K33" s="5">
         <v>18390926</v>
       </c>
-      <c r="I33" t="s">
+      <c r="L33" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>181</v>
       </c>
@@ -4395,23 +4561,23 @@
       <c r="D34" t="s">
         <v>177</v>
       </c>
-      <c r="E34" t="s">
+      <c r="H34" t="s">
         <v>183</v>
       </c>
-      <c r="F34" s="5">
+      <c r="I34" s="5">
         <v>18380828</v>
       </c>
-      <c r="G34" t="s">
+      <c r="J34" t="s">
         <v>184</v>
       </c>
-      <c r="H34" s="5">
+      <c r="K34" s="5">
         <v>18420105</v>
       </c>
-      <c r="I34" t="s">
+      <c r="L34" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>186</v>
       </c>
@@ -4424,23 +4590,23 @@
       <c r="D35" t="s">
         <v>37</v>
       </c>
-      <c r="E35" t="s">
+      <c r="H35" t="s">
         <v>188</v>
       </c>
-      <c r="F35" s="5">
+      <c r="I35" s="5">
         <v>18380903</v>
       </c>
-      <c r="G35" t="s">
+      <c r="J35" t="s">
         <v>189</v>
       </c>
-      <c r="H35" s="5">
+      <c r="K35" s="5">
         <v>18420531</v>
       </c>
-      <c r="I35" t="s">
+      <c r="L35" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>191</v>
       </c>
@@ -4450,23 +4616,23 @@
       <c r="C36" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E36" t="s">
+      <c r="H36" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="5">
+      <c r="I36" s="5">
         <v>18380101</v>
       </c>
-      <c r="G36" t="s">
+      <c r="J36" t="s">
         <v>193</v>
       </c>
-      <c r="H36" s="5">
+      <c r="K36" s="5">
         <v>18421231</v>
       </c>
-      <c r="I36" t="s">
+      <c r="L36" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>195</v>
       </c>
@@ -4479,23 +4645,23 @@
       <c r="D37" t="s">
         <v>165</v>
       </c>
-      <c r="E37" t="s">
+      <c r="H37" t="s">
         <v>197</v>
       </c>
-      <c r="F37" s="5">
+      <c r="I37" s="5">
         <v>18350813</v>
       </c>
-      <c r="G37" t="s">
+      <c r="J37" t="s">
         <v>198</v>
       </c>
-      <c r="H37" s="5">
+      <c r="K37" s="5">
         <v>18390615</v>
       </c>
-      <c r="I37" t="s">
+      <c r="L37" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>200</v>
       </c>
@@ -4508,23 +4674,23 @@
       <c r="D38" t="s">
         <v>37</v>
       </c>
-      <c r="E38" t="s">
+      <c r="H38" t="s">
         <v>202</v>
       </c>
-      <c r="F38" s="5">
+      <c r="I38" s="5">
         <v>18350301</v>
       </c>
-      <c r="G38" t="s">
+      <c r="J38" t="s">
         <v>203</v>
       </c>
-      <c r="H38" s="5">
+      <c r="K38" s="5">
         <v>18400826</v>
       </c>
-      <c r="I38" t="s">
+      <c r="L38" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>205</v>
       </c>
@@ -4534,23 +4700,23 @@
       <c r="C39" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E39" t="s">
+      <c r="H39" t="s">
         <v>207</v>
       </c>
-      <c r="F39" s="5">
+      <c r="I39" s="5">
         <v>18350905</v>
       </c>
-      <c r="G39" t="s">
+      <c r="J39" t="s">
         <v>208</v>
       </c>
-      <c r="H39" s="5">
+      <c r="K39" s="5">
         <v>18390503</v>
       </c>
-      <c r="I39" t="s">
+      <c r="L39" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>210</v>
       </c>
@@ -4560,23 +4726,23 @@
       <c r="C40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E40" t="s">
+      <c r="H40" t="s">
         <v>212</v>
       </c>
-      <c r="F40" s="5">
+      <c r="I40" s="5">
         <v>18340101</v>
       </c>
-      <c r="G40" t="s">
+      <c r="J40" t="s">
         <v>213</v>
       </c>
-      <c r="H40" s="5">
+      <c r="K40" s="5">
         <v>18430630</v>
       </c>
-      <c r="I40" t="s">
+      <c r="L40" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>215</v>
       </c>
@@ -4586,23 +4752,23 @@
       <c r="C41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E41" t="s">
+      <c r="H41" t="s">
         <v>217</v>
       </c>
-      <c r="F41" s="5">
+      <c r="I41" s="5">
         <v>18350713</v>
       </c>
-      <c r="G41" t="s">
+      <c r="J41" t="s">
         <v>218</v>
       </c>
-      <c r="H41" s="5">
+      <c r="K41" s="5">
         <v>18390116</v>
       </c>
-      <c r="I41" t="s">
+      <c r="L41" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>220</v>
       </c>
@@ -4612,23 +4778,23 @@
       <c r="C42" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E42" t="s">
+      <c r="H42" t="s">
         <v>222</v>
       </c>
-      <c r="F42" s="5">
+      <c r="I42" s="5">
         <v>18360801</v>
       </c>
-      <c r="G42" t="s">
+      <c r="J42" t="s">
         <v>223</v>
       </c>
-      <c r="H42" s="5">
+      <c r="K42" s="5">
         <v>18450521</v>
       </c>
-      <c r="I42" t="s">
+      <c r="L42" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>225</v>
       </c>
@@ -4641,23 +4807,23 @@
       <c r="D43" t="s">
         <v>227</v>
       </c>
-      <c r="E43" t="s">
+      <c r="H43" t="s">
         <v>228</v>
       </c>
-      <c r="F43" s="5">
+      <c r="I43" s="5">
         <v>18350906</v>
       </c>
-      <c r="G43" t="s">
+      <c r="J43" t="s">
         <v>68</v>
       </c>
-      <c r="H43" s="5">
+      <c r="K43" s="5">
         <v>18390129</v>
       </c>
-      <c r="I43" t="s">
+      <c r="L43" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>230</v>
       </c>
@@ -4670,23 +4836,23 @@
       <c r="D44" t="s">
         <v>232</v>
       </c>
-      <c r="E44" t="s">
+      <c r="H44" t="s">
         <v>233</v>
       </c>
-      <c r="F44" s="5">
+      <c r="I44" s="5">
         <v>18340611</v>
       </c>
-      <c r="G44" t="s">
+      <c r="J44" t="s">
         <v>234</v>
       </c>
-      <c r="H44" s="5">
+      <c r="K44" s="5">
         <v>18390805</v>
       </c>
-      <c r="I44" t="s">
+      <c r="L44" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>236</v>
       </c>
@@ -4699,23 +4865,23 @@
       <c r="D45" t="s">
         <v>17</v>
       </c>
-      <c r="E45" t="s">
+      <c r="H45" t="s">
         <v>239</v>
       </c>
-      <c r="F45" s="5">
+      <c r="I45" s="5">
         <v>18370715</v>
       </c>
-      <c r="G45" t="s">
+      <c r="J45" t="s">
         <v>240</v>
       </c>
-      <c r="H45" s="5">
+      <c r="K45" s="5">
         <v>18400811</v>
       </c>
-      <c r="I45" t="s">
+      <c r="L45" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>242</v>
       </c>
@@ -4728,23 +4894,23 @@
       <c r="D46" t="s">
         <v>37</v>
       </c>
-      <c r="E46" t="s">
+      <c r="H46" t="s">
         <v>244</v>
       </c>
-      <c r="F46" s="5">
+      <c r="I46" s="5">
         <v>18361001</v>
       </c>
-      <c r="G46" t="s">
+      <c r="J46" t="s">
         <v>245</v>
       </c>
-      <c r="H46" s="5">
+      <c r="K46" s="5">
         <v>18390430</v>
       </c>
-      <c r="I46" t="s">
+      <c r="L46" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>247</v>
       </c>
@@ -4757,23 +4923,23 @@
       <c r="D47" t="s">
         <v>37</v>
       </c>
-      <c r="E47" t="s">
+      <c r="H47" t="s">
         <v>249</v>
       </c>
-      <c r="F47" s="5">
+      <c r="I47" s="5">
         <v>18310816</v>
       </c>
-      <c r="G47" t="s">
+      <c r="J47" t="s">
         <v>250</v>
       </c>
-      <c r="H47" s="5">
+      <c r="K47" s="5">
         <v>18430416</v>
       </c>
-      <c r="I47" t="s">
+      <c r="L47" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>252</v>
       </c>
@@ -4786,23 +4952,23 @@
       <c r="D48" t="s">
         <v>37</v>
       </c>
-      <c r="E48" t="s">
+      <c r="H48" t="s">
         <v>253</v>
       </c>
-      <c r="F48" s="5">
+      <c r="I48" s="5">
         <v>18380420</v>
       </c>
-      <c r="G48" t="s">
+      <c r="J48" t="s">
         <v>254</v>
       </c>
-      <c r="H48" s="5">
+      <c r="K48" s="5">
         <v>18401218</v>
       </c>
-      <c r="I48" t="s">
+      <c r="L48" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>256</v>
       </c>
@@ -4815,23 +4981,23 @@
       <c r="D49" t="s">
         <v>227</v>
       </c>
-      <c r="E49" t="s">
+      <c r="H49" t="s">
         <v>258</v>
       </c>
-      <c r="F49" s="5">
+      <c r="I49" s="5">
         <v>18380805</v>
       </c>
-      <c r="G49" t="s">
+      <c r="J49" t="s">
         <v>259</v>
       </c>
-      <c r="H49" s="5">
+      <c r="K49" s="5">
         <v>18410619</v>
       </c>
-      <c r="I49" t="s">
+      <c r="L49" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>261</v>
       </c>
@@ -4844,23 +5010,23 @@
       <c r="D50" t="s">
         <v>37</v>
       </c>
-      <c r="E50" t="s">
+      <c r="H50" t="s">
         <v>263</v>
       </c>
-      <c r="F50" s="5">
+      <c r="I50" s="5">
         <v>18370804</v>
       </c>
-      <c r="G50" t="s">
+      <c r="J50" t="s">
         <v>264</v>
       </c>
-      <c r="H50" s="5">
+      <c r="K50" s="5">
         <v>18401208</v>
       </c>
-      <c r="I50" t="s">
+      <c r="L50" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>266</v>
       </c>
@@ -4873,23 +5039,23 @@
       <c r="D51" t="s">
         <v>37</v>
       </c>
-      <c r="E51" t="s">
+      <c r="H51" t="s">
         <v>268</v>
       </c>
-      <c r="F51" s="5">
+      <c r="I51" s="5">
         <v>18371125</v>
       </c>
-      <c r="G51" t="s">
+      <c r="J51" t="s">
         <v>269</v>
       </c>
-      <c r="H51" s="5">
+      <c r="K51" s="5">
         <v>18400214</v>
       </c>
-      <c r="I51" t="s">
+      <c r="L51" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>271</v>
       </c>
@@ -4902,23 +5068,23 @@
       <c r="D52" t="s">
         <v>37</v>
       </c>
-      <c r="E52" t="s">
+      <c r="H52" t="s">
         <v>273</v>
       </c>
-      <c r="F52" s="5">
+      <c r="I52" s="5">
         <v>18360305</v>
       </c>
-      <c r="G52" t="s">
+      <c r="J52" t="s">
         <v>274</v>
       </c>
-      <c r="H52" s="5">
+      <c r="K52" s="5">
         <v>18390515</v>
       </c>
-      <c r="I52" t="s">
+      <c r="L52" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>276</v>
       </c>
@@ -4931,23 +5097,23 @@
       <c r="D53" t="s">
         <v>37</v>
       </c>
-      <c r="E53" t="s">
+      <c r="H53" t="s">
         <v>278</v>
       </c>
-      <c r="F53" s="5">
+      <c r="I53" s="5">
         <v>18361216</v>
       </c>
-      <c r="G53" t="s">
+      <c r="J53" t="s">
         <v>279</v>
       </c>
-      <c r="H53" s="5">
+      <c r="K53" s="5">
         <v>18400116</v>
       </c>
-      <c r="I53" t="s">
+      <c r="L53" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>281</v>
       </c>
@@ -4957,23 +5123,23 @@
       <c r="C54" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E54" t="s">
+      <c r="H54" t="s">
         <v>18</v>
       </c>
-      <c r="F54" s="5">
+      <c r="I54" s="5">
         <v>18370101</v>
       </c>
-      <c r="G54" t="s">
+      <c r="J54" t="s">
         <v>283</v>
       </c>
-      <c r="H54" s="5">
+      <c r="K54" s="5">
         <v>18441231</v>
       </c>
-      <c r="I54" t="s">
+      <c r="L54" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>285</v>
       </c>
@@ -4986,23 +5152,23 @@
       <c r="D55" t="s">
         <v>287</v>
       </c>
-      <c r="E55" t="s">
+      <c r="H55" t="s">
         <v>288</v>
       </c>
-      <c r="F55" s="5">
+      <c r="I55" s="5">
         <v>18310101</v>
       </c>
-      <c r="G55" t="s">
+      <c r="J55" t="s">
         <v>245</v>
       </c>
-      <c r="H55" s="5">
+      <c r="K55" s="5">
         <v>18390430</v>
       </c>
-      <c r="I55" t="s">
+      <c r="L55" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>290</v>
       </c>
@@ -5015,23 +5181,23 @@
       <c r="D56" t="s">
         <v>165</v>
       </c>
-      <c r="E56" t="s">
+      <c r="H56" t="s">
         <v>91</v>
       </c>
-      <c r="F56" s="5">
+      <c r="I56" s="5">
         <v>18361201</v>
       </c>
-      <c r="G56" t="s">
+      <c r="J56" t="s">
         <v>292</v>
       </c>
-      <c r="H56" s="5">
+      <c r="K56" s="5">
         <v>18390321</v>
       </c>
-      <c r="I56" t="s">
+      <c r="L56" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>294</v>
       </c>
@@ -5041,23 +5207,23 @@
       <c r="C57" t="s">
         <v>296</v>
       </c>
-      <c r="E57" t="s">
+      <c r="H57" t="s">
         <v>297</v>
       </c>
-      <c r="F57" s="5">
+      <c r="I57" s="5">
         <v>18381202</v>
       </c>
-      <c r="G57" t="s">
+      <c r="J57" t="s">
         <v>298</v>
       </c>
-      <c r="H57" s="5">
+      <c r="K57" s="5">
         <v>18411223</v>
       </c>
-      <c r="I57" t="s">
+      <c r="L57" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>300</v>
       </c>
@@ -5067,23 +5233,23 @@
       <c r="C58" t="s">
         <v>302</v>
       </c>
-      <c r="E58" t="s">
+      <c r="H58" t="s">
         <v>303</v>
       </c>
-      <c r="F58" s="5">
+      <c r="I58" s="5">
         <v>18380816</v>
       </c>
-      <c r="G58" t="s">
+      <c r="J58" t="s">
         <v>304</v>
       </c>
-      <c r="H58" s="5">
+      <c r="K58" s="5">
         <v>18420722</v>
       </c>
-      <c r="I58" t="s">
+      <c r="L58" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>306</v>
       </c>
@@ -5096,23 +5262,23 @@
       <c r="D59" t="s">
         <v>37</v>
       </c>
-      <c r="E59" t="s">
+      <c r="H59" t="s">
         <v>309</v>
       </c>
-      <c r="F59" s="5">
+      <c r="I59" s="5">
         <v>18370203</v>
       </c>
-      <c r="G59" t="s">
+      <c r="J59" t="s">
         <v>310</v>
       </c>
-      <c r="H59" s="5">
+      <c r="K59" s="5">
         <v>18400729</v>
       </c>
-      <c r="I59" t="s">
+      <c r="L59" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>312</v>
       </c>
@@ -5122,23 +5288,23 @@
       <c r="C60" t="s">
         <v>314</v>
       </c>
-      <c r="E60" t="s">
+      <c r="H60" t="s">
         <v>25</v>
       </c>
-      <c r="F60" s="5">
+      <c r="I60" s="5">
         <v>18370720</v>
       </c>
-      <c r="G60" t="s">
+      <c r="J60" t="s">
         <v>315</v>
       </c>
-      <c r="H60" s="5">
+      <c r="K60" s="5">
         <v>18430213</v>
       </c>
-      <c r="I60" t="s">
+      <c r="L60" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>317</v>
       </c>
@@ -5151,23 +5317,23 @@
       <c r="D61" t="s">
         <v>320</v>
       </c>
-      <c r="E61" t="s">
+      <c r="H61" t="s">
         <v>321</v>
       </c>
-      <c r="F61" s="5">
+      <c r="I61" s="5">
         <v>18380207</v>
       </c>
-      <c r="G61" t="s">
+      <c r="J61" t="s">
         <v>322</v>
       </c>
-      <c r="H61" s="5">
+      <c r="K61" s="5">
         <v>18430308</v>
       </c>
-      <c r="I61" t="s">
+      <c r="L61" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>324</v>
       </c>
@@ -5180,23 +5346,23 @@
       <c r="D62" t="s">
         <v>327</v>
       </c>
-      <c r="E62" t="s">
+      <c r="H62" t="s">
         <v>321</v>
       </c>
-      <c r="F62" s="5">
+      <c r="I62" s="5">
         <v>18380207</v>
       </c>
-      <c r="G62" t="s">
+      <c r="J62" t="s">
         <v>328</v>
       </c>
-      <c r="H62" s="5">
+      <c r="K62" s="5">
         <v>18391117</v>
       </c>
-      <c r="I62" t="s">
+      <c r="L62" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>330</v>
       </c>
@@ -5209,23 +5375,23 @@
       <c r="D63" t="s">
         <v>332</v>
       </c>
-      <c r="E63" t="s">
+      <c r="H63" t="s">
         <v>333</v>
       </c>
-      <c r="F63" s="5">
+      <c r="I63" s="5">
         <v>18380404</v>
       </c>
-      <c r="G63" t="s">
+      <c r="J63" t="s">
         <v>334</v>
       </c>
-      <c r="H63" s="5">
+      <c r="K63" s="5">
         <v>18410630</v>
       </c>
-      <c r="I63" t="s">
+      <c r="L63" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>336</v>
       </c>
@@ -5235,23 +5401,23 @@
       <c r="C64" t="s">
         <v>296</v>
       </c>
-      <c r="E64" t="s">
+      <c r="H64" t="s">
         <v>338</v>
       </c>
-      <c r="F64" s="5">
+      <c r="I64" s="5">
         <v>18360323</v>
       </c>
-      <c r="G64" t="s">
+      <c r="J64" t="s">
         <v>339</v>
       </c>
-      <c r="H64" s="5">
+      <c r="K64" s="5">
         <v>18390307</v>
       </c>
-      <c r="I64" t="s">
+      <c r="L64" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>341</v>
       </c>
@@ -5264,23 +5430,23 @@
       <c r="D65" t="s">
         <v>327</v>
       </c>
-      <c r="E65" t="s">
+      <c r="H65" t="s">
         <v>343</v>
       </c>
-      <c r="F65" s="5">
+      <c r="I65" s="5">
         <v>18380722</v>
       </c>
-      <c r="G65" t="s">
+      <c r="J65" t="s">
         <v>344</v>
       </c>
-      <c r="H65" s="5">
+      <c r="K65" s="5">
         <v>18410909</v>
       </c>
-      <c r="I65" t="s">
+      <c r="L65" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>346</v>
       </c>
@@ -5293,52 +5459,52 @@
       <c r="D66" t="s">
         <v>332</v>
       </c>
-      <c r="E66" t="s">
+      <c r="H66" t="s">
         <v>348</v>
       </c>
-      <c r="F66" s="5">
+      <c r="I66" s="5">
         <v>18350404</v>
       </c>
-      <c r="G66" t="s">
+      <c r="J66" t="s">
         <v>349</v>
       </c>
-      <c r="H66" s="5">
+      <c r="K66" s="5">
         <v>18450925</v>
       </c>
-      <c r="I66" t="s">
+      <c r="L66" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
         <v>296</v>
       </c>
       <c r="D67" t="s">
         <v>24</v>
       </c>
-      <c r="E67" t="s">
+      <c r="H67" t="s">
         <v>353</v>
       </c>
-      <c r="F67" s="5">
+      <c r="I67" s="5">
         <v>18360605</v>
       </c>
-      <c r="G67" t="s">
+      <c r="J67" t="s">
         <v>354</v>
       </c>
-      <c r="H67" s="5">
+      <c r="K67" s="5">
         <v>18420101</v>
       </c>
-      <c r="I67" t="s">
+      <c r="L67" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>356</v>
       </c>
@@ -5348,23 +5514,23 @@
       <c r="C68" t="s">
         <v>296</v>
       </c>
-      <c r="E68" t="s">
+      <c r="H68" t="s">
         <v>358</v>
       </c>
-      <c r="F68" s="5">
+      <c r="I68" s="5">
         <v>18360407</v>
       </c>
-      <c r="G68" t="s">
+      <c r="J68" t="s">
         <v>359</v>
       </c>
-      <c r="H68" s="5">
+      <c r="K68" s="5">
         <v>18410605</v>
       </c>
-      <c r="I68" t="s">
+      <c r="L68" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>361</v>
       </c>
@@ -5377,23 +5543,23 @@
       <c r="D69" t="s">
         <v>17</v>
       </c>
-      <c r="E69" t="s">
+      <c r="H69" t="s">
         <v>363</v>
       </c>
-      <c r="F69" s="5">
+      <c r="I69" s="5">
         <v>18341128</v>
       </c>
-      <c r="G69" t="s">
+      <c r="J69" t="s">
         <v>364</v>
       </c>
-      <c r="H69" s="5">
+      <c r="K69" s="5">
         <v>18400625</v>
       </c>
-      <c r="I69" t="s">
+      <c r="L69" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>366</v>
       </c>
@@ -5406,23 +5572,23 @@
       <c r="D70" t="s">
         <v>320</v>
       </c>
-      <c r="E70" t="s">
+      <c r="H70" t="s">
         <v>369</v>
       </c>
-      <c r="F70" s="5">
+      <c r="I70" s="5">
         <v>18380826</v>
       </c>
-      <c r="G70" t="s">
+      <c r="J70" t="s">
         <v>370</v>
       </c>
-      <c r="H70" s="5">
+      <c r="K70" s="5">
         <v>18400613</v>
       </c>
-      <c r="I70" t="s">
+      <c r="L70" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>372</v>
       </c>
@@ -5435,23 +5601,23 @@
       <c r="D71" t="s">
         <v>37</v>
       </c>
-      <c r="E71" t="s">
+      <c r="H71" t="s">
         <v>374</v>
       </c>
-      <c r="F71" s="5">
+      <c r="I71" s="5">
         <v>18371230</v>
       </c>
-      <c r="G71" t="s">
+      <c r="J71" t="s">
         <v>375</v>
       </c>
-      <c r="H71" s="5">
+      <c r="K71" s="5">
         <v>18410228</v>
       </c>
-      <c r="I71" t="s">
+      <c r="L71" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>377</v>
       </c>
@@ -5464,23 +5630,23 @@
       <c r="D72" t="s">
         <v>37</v>
       </c>
-      <c r="E72" t="s">
+      <c r="H72" t="s">
         <v>379</v>
       </c>
-      <c r="F72" s="5">
+      <c r="I72" s="5">
         <v>18371211</v>
       </c>
-      <c r="G72" t="s">
+      <c r="J72" t="s">
         <v>380</v>
       </c>
-      <c r="H72" s="5">
+      <c r="K72" s="5">
         <v>18400309</v>
       </c>
-      <c r="I72" t="s">
+      <c r="L72" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>382</v>
       </c>
@@ -5493,23 +5659,23 @@
       <c r="D73" t="s">
         <v>384</v>
       </c>
-      <c r="E73" t="s">
+      <c r="H73" t="s">
         <v>385</v>
       </c>
-      <c r="F73" s="5">
+      <c r="I73" s="5">
         <v>18360423</v>
       </c>
-      <c r="G73" t="s">
+      <c r="J73" t="s">
         <v>386</v>
       </c>
-      <c r="H73" s="5">
+      <c r="K73" s="5">
         <v>18390119</v>
       </c>
-      <c r="I73" t="s">
+      <c r="L73" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>388</v>
       </c>
@@ -5522,23 +5688,23 @@
       <c r="D74" t="s">
         <v>37</v>
       </c>
-      <c r="E74" t="s">
+      <c r="H74" t="s">
         <v>390</v>
       </c>
-      <c r="F74" s="5">
+      <c r="I74" s="5">
         <v>18380815</v>
       </c>
-      <c r="G74" t="s">
+      <c r="J74" t="s">
         <v>391</v>
       </c>
-      <c r="H74" s="5">
+      <c r="K74" s="5">
         <v>18400630</v>
       </c>
-      <c r="I74" t="s">
+      <c r="L74" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>393</v>
       </c>
@@ -5548,23 +5714,23 @@
       <c r="C75" t="s">
         <v>302</v>
       </c>
-      <c r="E75" t="s">
+      <c r="H75" t="s">
         <v>395</v>
       </c>
-      <c r="F75" s="5">
+      <c r="I75" s="5">
         <v>18371113</v>
       </c>
-      <c r="G75" t="s">
+      <c r="J75" t="s">
         <v>396</v>
       </c>
-      <c r="H75" s="5">
+      <c r="K75" s="5">
         <v>18430315</v>
       </c>
-      <c r="I75" t="s">
+      <c r="L75" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>398</v>
       </c>
@@ -5577,23 +5743,23 @@
       <c r="D76" t="s">
         <v>37</v>
       </c>
-      <c r="E76" t="s">
+      <c r="H76" t="s">
         <v>400</v>
       </c>
-      <c r="F76" s="5">
+      <c r="I76" s="5">
         <v>18381115</v>
       </c>
-      <c r="G76" t="s">
+      <c r="J76" t="s">
         <v>401</v>
       </c>
-      <c r="H76" s="5">
+      <c r="K76" s="5">
         <v>18430730</v>
       </c>
-      <c r="I76" t="s">
+      <c r="L76" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>403</v>
       </c>
@@ -5603,23 +5769,23 @@
       <c r="C77" t="s">
         <v>296</v>
       </c>
-      <c r="E77" t="s">
+      <c r="H77" t="s">
         <v>405</v>
       </c>
-      <c r="F77" s="5">
+      <c r="I77" s="5">
         <v>18361124</v>
       </c>
-      <c r="G77" t="s">
+      <c r="J77" t="s">
         <v>83</v>
       </c>
-      <c r="H77" s="5">
+      <c r="K77" s="5">
         <v>18411031</v>
       </c>
-      <c r="I77" t="s">
+      <c r="L77" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>407</v>
       </c>
@@ -5629,23 +5795,23 @@
       <c r="C78" t="s">
         <v>296</v>
       </c>
-      <c r="E78" t="s">
+      <c r="H78" t="s">
         <v>409</v>
       </c>
-      <c r="F78" s="5">
+      <c r="I78" s="5">
         <v>18370407</v>
       </c>
-      <c r="G78" t="s">
+      <c r="J78" t="s">
         <v>410</v>
       </c>
-      <c r="H78" s="5">
+      <c r="K78" s="5">
         <v>18410731</v>
       </c>
-      <c r="I78" t="s">
+      <c r="L78" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>412</v>
       </c>
@@ -5658,23 +5824,23 @@
       <c r="D79" t="s">
         <v>37</v>
       </c>
-      <c r="E79" t="s">
+      <c r="H79" t="s">
         <v>321</v>
       </c>
-      <c r="F79" s="5">
+      <c r="I79" s="5">
         <v>18380207</v>
       </c>
-      <c r="G79" t="s">
+      <c r="J79" t="s">
         <v>414</v>
       </c>
-      <c r="H79" s="5">
+      <c r="K79" s="5">
         <v>18430127</v>
       </c>
-      <c r="I79" t="s">
+      <c r="L79" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>416</v>
       </c>
@@ -5684,23 +5850,23 @@
       <c r="C80" t="s">
         <v>319</v>
       </c>
-      <c r="E80" t="s">
+      <c r="H80" t="s">
         <v>418</v>
       </c>
-      <c r="F80" s="5">
+      <c r="I80" s="5">
         <v>18390101</v>
       </c>
-      <c r="G80" t="s">
+      <c r="J80" t="s">
         <v>193</v>
       </c>
-      <c r="H80" s="5">
+      <c r="K80" s="5">
         <v>18421231</v>
       </c>
-      <c r="I80" t="s">
+      <c r="L80" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>420</v>
       </c>
@@ -5713,23 +5879,23 @@
       <c r="D81" t="s">
         <v>232</v>
       </c>
-      <c r="E81" t="s">
+      <c r="H81" t="s">
         <v>422</v>
       </c>
-      <c r="F81" s="5">
+      <c r="I81" s="5">
         <v>18380703</v>
       </c>
-      <c r="G81" t="s">
+      <c r="J81" t="s">
         <v>142</v>
       </c>
-      <c r="H81" s="5">
+      <c r="K81" s="5">
         <v>18400915</v>
       </c>
-      <c r="I81" t="s">
+      <c r="L81" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>424</v>
       </c>
@@ -5742,23 +5908,23 @@
       <c r="D82" t="s">
         <v>165</v>
       </c>
-      <c r="E82" t="s">
+      <c r="H82" t="s">
         <v>426</v>
       </c>
-      <c r="F82" s="5">
+      <c r="I82" s="5">
         <v>18380605</v>
       </c>
-      <c r="G82" t="s">
+      <c r="J82" t="s">
         <v>427</v>
       </c>
-      <c r="H82" s="5">
+      <c r="K82" s="5">
         <v>18430316</v>
       </c>
-      <c r="I82" t="s">
+      <c r="L82" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>429</v>
       </c>
@@ -5771,23 +5937,23 @@
       <c r="D83" t="s">
         <v>17</v>
       </c>
-      <c r="E83" t="s">
+      <c r="H83" t="s">
         <v>431</v>
       </c>
-      <c r="F83" s="5">
+      <c r="I83" s="5">
         <v>18370701</v>
       </c>
-      <c r="G83" t="s">
+      <c r="J83" t="s">
         <v>432</v>
       </c>
-      <c r="H83" s="5">
+      <c r="K83" s="5">
         <v>18411122</v>
       </c>
-      <c r="I83" t="s">
+      <c r="L83" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>434</v>
       </c>
@@ -5800,23 +5966,23 @@
       <c r="D84" t="s">
         <v>165</v>
       </c>
-      <c r="E84" t="s">
+      <c r="H84" t="s">
         <v>418</v>
       </c>
-      <c r="F84" s="5">
+      <c r="I84" s="5">
         <v>18390101</v>
       </c>
-      <c r="G84" t="s">
+      <c r="J84" t="s">
         <v>436</v>
       </c>
-      <c r="H84" s="5">
+      <c r="K84" s="5">
         <v>18420525</v>
       </c>
-      <c r="I84" t="s">
+      <c r="L84" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>438</v>
       </c>
@@ -5829,23 +5995,23 @@
       <c r="D85" t="s">
         <v>17</v>
       </c>
-      <c r="E85" t="s">
+      <c r="H85" t="s">
         <v>440</v>
       </c>
-      <c r="F85" s="5">
+      <c r="I85" s="5">
         <v>18361203</v>
       </c>
-      <c r="G85" t="s">
+      <c r="J85" t="s">
         <v>441</v>
       </c>
-      <c r="H85" s="5">
+      <c r="K85" s="5">
         <v>18410703</v>
       </c>
-      <c r="I85" t="s">
+      <c r="L85" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>443</v>
       </c>
@@ -5855,23 +6021,23 @@
       <c r="C86" t="s">
         <v>308</v>
       </c>
-      <c r="E86" t="s">
+      <c r="H86" t="s">
         <v>445</v>
       </c>
-      <c r="F86" s="5">
+      <c r="I86" s="5">
         <v>18360914</v>
       </c>
-      <c r="G86" t="s">
+      <c r="J86" t="s">
         <v>446</v>
       </c>
-      <c r="H86" s="5">
+      <c r="K86" s="5">
         <v>18390502</v>
       </c>
-      <c r="I86" t="s">
+      <c r="L86" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>448</v>
       </c>
@@ -5881,23 +6047,23 @@
       <c r="C87" t="s">
         <v>319</v>
       </c>
-      <c r="E87" t="s">
+      <c r="H87" t="s">
         <v>450</v>
       </c>
-      <c r="F87" s="5">
+      <c r="I87" s="5">
         <v>18380908</v>
       </c>
-      <c r="G87" t="s">
+      <c r="J87" t="s">
         <v>451</v>
       </c>
-      <c r="H87" s="5">
+      <c r="K87" s="5">
         <v>18390819</v>
       </c>
-      <c r="I87" t="s">
+      <c r="L87" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>453</v>
       </c>
@@ -5910,23 +6076,23 @@
       <c r="D88" t="s">
         <v>37</v>
       </c>
-      <c r="E88" t="s">
+      <c r="H88" t="s">
         <v>455</v>
       </c>
-      <c r="F88" s="5">
+      <c r="I88" s="5">
         <v>18380220</v>
       </c>
-      <c r="G88" t="s">
+      <c r="J88" t="s">
         <v>456</v>
       </c>
-      <c r="H88" s="5">
+      <c r="K88" s="5">
         <v>18430318</v>
       </c>
-      <c r="I88" t="s">
+      <c r="L88" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>458</v>
       </c>
@@ -5936,23 +6102,23 @@
       <c r="C89" t="s">
         <v>460</v>
       </c>
-      <c r="E89" t="s">
+      <c r="H89" t="s">
         <v>461</v>
       </c>
-      <c r="F89" s="5">
+      <c r="I89" s="5">
         <v>18381117</v>
       </c>
-      <c r="G89" t="s">
+      <c r="J89" t="s">
         <v>462</v>
       </c>
-      <c r="H89" s="5">
+      <c r="K89" s="5">
         <v>18420520</v>
       </c>
-      <c r="I89" t="s">
+      <c r="L89" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>464</v>
       </c>
@@ -5965,23 +6131,23 @@
       <c r="D90" t="s">
         <v>17</v>
       </c>
-      <c r="E90" t="s">
+      <c r="H90" t="s">
         <v>466</v>
       </c>
-      <c r="F90" s="5">
+      <c r="I90" s="5">
         <v>18380209</v>
       </c>
-      <c r="G90" t="s">
+      <c r="J90" t="s">
         <v>467</v>
       </c>
-      <c r="H90" s="5">
+      <c r="K90" s="5">
         <v>18410522</v>
       </c>
-      <c r="I90" t="s">
+      <c r="L90" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>469</v>
       </c>
@@ -5991,23 +6157,23 @@
       <c r="C91" t="s">
         <v>296</v>
       </c>
-      <c r="E91" t="s">
+      <c r="H91" t="s">
         <v>418</v>
       </c>
-      <c r="F91" s="5">
+      <c r="I91" s="5">
         <v>18390101</v>
       </c>
-      <c r="G91" t="s">
+      <c r="J91" t="s">
         <v>471</v>
       </c>
-      <c r="H91" s="5">
+      <c r="K91" s="5">
         <v>18410827</v>
       </c>
-      <c r="I91" t="s">
+      <c r="L91" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>473</v>
       </c>
@@ -6020,52 +6186,58 @@
       <c r="D92" t="s">
         <v>320</v>
       </c>
-      <c r="E92" t="s">
+      <c r="H92" t="s">
         <v>475</v>
       </c>
-      <c r="F92" s="5">
+      <c r="I92" s="5">
         <v>18360804</v>
       </c>
-      <c r="G92" t="s">
+      <c r="J92" t="s">
         <v>19</v>
       </c>
-      <c r="H92" s="5">
+      <c r="K92" s="5">
         <v>18391231</v>
       </c>
-      <c r="I92" t="s">
+      <c r="L92" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="8" t="s">
         <v>460</v>
       </c>
       <c r="D93" t="s">
         <v>54</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="H93" t="s">
         <v>479</v>
       </c>
-      <c r="F93" s="5">
+      <c r="I93" s="5">
         <v>18370623</v>
       </c>
-      <c r="G93" t="s">
+      <c r="J93" t="s">
         <v>480</v>
       </c>
-      <c r="H93" s="5">
+      <c r="K93" s="5">
         <v>18400930</v>
       </c>
-      <c r="I93" t="s">
+      <c r="L93" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>482</v>
       </c>
@@ -6078,23 +6250,23 @@
       <c r="D94" t="s">
         <v>320</v>
       </c>
-      <c r="E94" t="s">
+      <c r="H94" t="s">
         <v>484</v>
       </c>
-      <c r="F94" s="5">
+      <c r="I94" s="5">
         <v>18370727</v>
       </c>
-      <c r="G94" t="s">
+      <c r="J94" t="s">
         <v>485</v>
       </c>
-      <c r="H94" s="5">
+      <c r="K94" s="5">
         <v>18410324</v>
       </c>
-      <c r="I94" t="s">
+      <c r="L94" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>487</v>
       </c>
@@ -6107,23 +6279,23 @@
       <c r="D95" t="s">
         <v>165</v>
       </c>
-      <c r="E95" t="s">
+      <c r="H95" t="s">
         <v>489</v>
       </c>
-      <c r="F95" s="5">
+      <c r="I95" s="5">
         <v>18371116</v>
       </c>
-      <c r="G95" t="s">
+      <c r="J95" t="s">
         <v>490</v>
       </c>
-      <c r="H95" s="5">
+      <c r="K95" s="5">
         <v>18390831</v>
       </c>
-      <c r="I95" t="s">
+      <c r="L95" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>492</v>
       </c>
@@ -6136,23 +6308,23 @@
       <c r="D96" t="s">
         <v>232</v>
       </c>
-      <c r="E96" t="s">
+      <c r="H96" t="s">
         <v>494</v>
       </c>
-      <c r="F96" s="5">
+      <c r="I96" s="5">
         <v>18381026</v>
       </c>
-      <c r="G96" t="s">
+      <c r="J96" t="s">
         <v>480</v>
       </c>
-      <c r="H96" s="5">
+      <c r="K96" s="5">
         <v>18400930</v>
       </c>
-      <c r="I96" t="s">
+      <c r="L96" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>496</v>
       </c>
@@ -6165,23 +6337,23 @@
       <c r="D97" t="s">
         <v>165</v>
       </c>
-      <c r="E97" t="s">
+      <c r="H97" t="s">
         <v>498</v>
       </c>
-      <c r="F97" s="5">
+      <c r="I97" s="5">
         <v>18370904</v>
       </c>
-      <c r="G97" t="s">
+      <c r="J97" t="s">
         <v>499</v>
       </c>
-      <c r="H97" s="5">
+      <c r="K97" s="5">
         <v>18430620</v>
       </c>
-      <c r="I97" t="s">
+      <c r="L97" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>501</v>
       </c>
@@ -6194,23 +6366,23 @@
       <c r="D98" t="s">
         <v>165</v>
       </c>
-      <c r="E98" t="s">
+      <c r="H98" t="s">
         <v>106</v>
       </c>
-      <c r="F98" s="5">
+      <c r="I98" s="5">
         <v>18360718</v>
       </c>
-      <c r="G98" t="s">
+      <c r="J98" t="s">
         <v>503</v>
       </c>
-      <c r="H98" s="5">
+      <c r="K98" s="5">
         <v>18400801</v>
       </c>
-      <c r="I98" t="s">
+      <c r="L98" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>505</v>
       </c>
@@ -6223,23 +6395,23 @@
       <c r="D99" t="s">
         <v>37</v>
       </c>
-      <c r="E99" t="s">
+      <c r="H99" t="s">
         <v>507</v>
       </c>
-      <c r="F99" s="5">
+      <c r="I99" s="5">
         <v>18370923</v>
       </c>
-      <c r="G99" t="s">
+      <c r="J99" t="s">
         <v>508</v>
       </c>
-      <c r="H99" s="5">
+      <c r="K99" s="5">
         <v>18390815</v>
       </c>
-      <c r="I99" t="s">
+      <c r="L99" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>510</v>
       </c>
@@ -6249,23 +6421,23 @@
       <c r="C100" t="s">
         <v>460</v>
       </c>
-      <c r="E100" t="s">
+      <c r="H100" t="s">
         <v>512</v>
       </c>
-      <c r="F100" s="5">
+      <c r="I100" s="5">
         <v>18381013</v>
       </c>
-      <c r="G100" t="s">
+      <c r="J100" t="s">
         <v>513</v>
       </c>
-      <c r="H100" s="5">
+      <c r="K100" s="5">
         <v>18400717</v>
       </c>
-      <c r="I100" t="s">
+      <c r="L100" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>515</v>
       </c>
@@ -6278,23 +6450,23 @@
       <c r="D101" t="s">
         <v>37</v>
       </c>
-      <c r="E101" t="s">
+      <c r="H101" t="s">
         <v>517</v>
       </c>
-      <c r="F101" s="5">
+      <c r="I101" s="5">
         <v>18381001</v>
       </c>
-      <c r="G101" t="s">
+      <c r="J101" t="s">
         <v>518</v>
       </c>
-      <c r="H101" s="5">
+      <c r="K101" s="5">
         <v>18430930</v>
       </c>
-      <c r="I101" t="s">
+      <c r="L101" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>520</v>
       </c>
@@ -6307,23 +6479,23 @@
       <c r="D102" t="s">
         <v>37</v>
       </c>
-      <c r="E102" t="s">
+      <c r="H102" t="s">
         <v>522</v>
       </c>
-      <c r="F102" s="5">
+      <c r="I102" s="5">
         <v>18361106</v>
       </c>
-      <c r="G102" t="s">
+      <c r="J102" t="s">
         <v>523</v>
       </c>
-      <c r="H102" s="5">
+      <c r="K102" s="5">
         <v>18410705</v>
       </c>
-      <c r="I102" t="s">
+      <c r="L102" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>525</v>
       </c>
@@ -6336,23 +6508,23 @@
       <c r="D103" t="s">
         <v>165</v>
       </c>
-      <c r="E103" t="s">
+      <c r="H103" t="s">
         <v>527</v>
       </c>
-      <c r="F103" s="5">
+      <c r="I103" s="5">
         <v>18360820</v>
       </c>
-      <c r="G103" t="s">
+      <c r="J103" t="s">
         <v>528</v>
       </c>
-      <c r="H103" s="5">
+      <c r="K103" s="5">
         <v>18400730</v>
       </c>
-      <c r="I103" t="s">
+      <c r="L103" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>530</v>
       </c>
@@ -6365,23 +6537,23 @@
       <c r="D104" t="s">
         <v>320</v>
       </c>
-      <c r="E104" t="s">
+      <c r="H104" t="s">
         <v>532</v>
       </c>
-      <c r="F104" s="5">
+      <c r="I104" s="5">
         <v>18350924</v>
       </c>
-      <c r="G104" t="s">
+      <c r="J104" t="s">
         <v>533</v>
       </c>
-      <c r="H104" s="5">
+      <c r="K104" s="5">
         <v>18390715</v>
       </c>
-      <c r="I104" t="s">
+      <c r="L104" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>535</v>
       </c>
@@ -6394,23 +6566,23 @@
       <c r="D105" t="s">
         <v>165</v>
       </c>
-      <c r="E105" t="s">
+      <c r="H105" t="s">
         <v>537</v>
       </c>
-      <c r="F105" s="5">
+      <c r="I105" s="5">
         <v>18370516</v>
       </c>
-      <c r="G105" t="s">
+      <c r="J105" t="s">
         <v>538</v>
       </c>
-      <c r="H105" s="5">
+      <c r="K105" s="5">
         <v>18410925</v>
       </c>
-      <c r="I105" t="s">
+      <c r="L105" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>540</v>
       </c>
@@ -6420,23 +6592,23 @@
       <c r="C106" t="s">
         <v>308</v>
       </c>
-      <c r="E106" t="s">
+      <c r="H106" t="s">
         <v>542</v>
       </c>
-      <c r="F106" s="5">
+      <c r="I106" s="5">
         <v>18380531</v>
       </c>
-      <c r="G106" t="s">
+      <c r="J106" t="s">
         <v>97</v>
       </c>
-      <c r="H106" s="5">
+      <c r="K106" s="5">
         <v>18400531</v>
       </c>
-      <c r="I106" t="s">
+      <c r="L106" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>544</v>
       </c>
@@ -6449,23 +6621,23 @@
       <c r="D107" t="s">
         <v>37</v>
       </c>
-      <c r="E107" t="s">
+      <c r="H107" t="s">
         <v>547</v>
       </c>
-      <c r="F107" s="5">
+      <c r="I107" s="5">
         <v>18370722</v>
       </c>
-      <c r="G107" t="s">
+      <c r="J107" t="s">
         <v>548</v>
       </c>
-      <c r="H107" s="5">
+      <c r="K107" s="5">
         <v>18440920</v>
       </c>
-      <c r="I107" t="s">
+      <c r="L107" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>550</v>
       </c>
@@ -6478,23 +6650,23 @@
       <c r="D108" t="s">
         <v>165</v>
       </c>
-      <c r="E108" t="s">
+      <c r="H108" t="s">
         <v>547</v>
       </c>
-      <c r="F108" s="5">
+      <c r="I108" s="5">
         <v>18370722</v>
       </c>
-      <c r="G108" t="s">
+      <c r="J108" t="s">
         <v>117</v>
       </c>
-      <c r="H108" s="5">
+      <c r="K108" s="5">
         <v>18390630</v>
       </c>
-      <c r="I108" t="s">
+      <c r="L108" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>553</v>
       </c>
@@ -6504,23 +6676,23 @@
       <c r="C109" t="s">
         <v>302</v>
       </c>
-      <c r="E109" t="s">
+      <c r="H109" t="s">
         <v>555</v>
       </c>
-      <c r="F109" s="5">
+      <c r="I109" s="5">
         <v>18360614</v>
       </c>
-      <c r="G109" t="s">
+      <c r="J109" t="s">
         <v>556</v>
       </c>
-      <c r="H109" s="5">
+      <c r="K109" s="5">
         <v>18391206</v>
       </c>
-      <c r="I109" t="s">
+      <c r="L109" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>558</v>
       </c>
@@ -6530,23 +6702,23 @@
       <c r="C110" t="s">
         <v>319</v>
       </c>
-      <c r="E110" t="s">
+      <c r="H110" t="s">
         <v>560</v>
       </c>
-      <c r="F110" s="5">
+      <c r="I110" s="5">
         <v>18360716</v>
       </c>
-      <c r="G110" t="s">
+      <c r="J110" t="s">
         <v>480</v>
       </c>
-      <c r="H110" s="5">
+      <c r="K110" s="5">
         <v>18400930</v>
       </c>
-      <c r="I110" t="s">
+      <c r="L110" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>562</v>
       </c>
@@ -6559,23 +6731,23 @@
       <c r="D111" t="s">
         <v>165</v>
       </c>
-      <c r="E111" t="s">
+      <c r="H111" t="s">
         <v>564</v>
       </c>
-      <c r="F111" s="5">
+      <c r="I111" s="5">
         <v>18380611</v>
       </c>
-      <c r="G111" t="s">
+      <c r="J111" t="s">
         <v>565</v>
       </c>
-      <c r="H111" s="5">
+      <c r="K111" s="5">
         <v>18420930</v>
       </c>
-      <c r="I111" t="s">
+      <c r="L111" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>567</v>
       </c>
@@ -6588,23 +6760,23 @@
       <c r="D112" t="s">
         <v>327</v>
       </c>
-      <c r="E112" t="s">
+      <c r="H112" t="s">
         <v>569</v>
       </c>
-      <c r="F112" s="5">
+      <c r="I112" s="5">
         <v>18370925</v>
       </c>
-      <c r="G112" t="s">
+      <c r="J112" t="s">
         <v>570</v>
       </c>
-      <c r="H112" s="5">
+      <c r="K112" s="5">
         <v>18431223</v>
       </c>
-      <c r="I112" t="s">
+      <c r="L112" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>572</v>
       </c>
@@ -6617,23 +6789,23 @@
       <c r="D113" t="s">
         <v>232</v>
       </c>
-      <c r="E113" t="s">
+      <c r="H113" t="s">
         <v>574</v>
       </c>
-      <c r="F113" s="5">
+      <c r="I113" s="5">
         <v>18370809</v>
       </c>
-      <c r="G113" t="s">
+      <c r="J113" t="s">
         <v>575</v>
       </c>
-      <c r="H113" s="5">
+      <c r="K113" s="5">
         <v>18400419</v>
       </c>
-      <c r="I113" t="s">
+      <c r="L113" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>577</v>
       </c>
@@ -6646,23 +6818,23 @@
       <c r="D114" t="s">
         <v>165</v>
       </c>
-      <c r="E114" t="s">
+      <c r="H114" t="s">
         <v>579</v>
       </c>
-      <c r="F114" s="5">
+      <c r="I114" s="5">
         <v>18370322</v>
       </c>
-      <c r="G114" t="s">
+      <c r="J114" t="s">
         <v>156</v>
       </c>
-      <c r="H114" s="5">
+      <c r="K114" s="5">
         <v>18390331</v>
       </c>
-      <c r="I114" t="s">
+      <c r="L114" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>581</v>
       </c>
@@ -6675,23 +6847,23 @@
       <c r="D115" t="s">
         <v>320</v>
       </c>
-      <c r="E115" t="s">
+      <c r="H115" t="s">
         <v>583</v>
       </c>
-      <c r="F115" s="5">
+      <c r="I115" s="5">
         <v>18350306</v>
       </c>
-      <c r="G115" t="s">
+      <c r="J115" t="s">
         <v>584</v>
       </c>
-      <c r="H115" s="5">
+      <c r="K115" s="5">
         <v>18390806</v>
       </c>
-      <c r="I115" t="s">
+      <c r="L115" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>586</v>
       </c>
@@ -6704,23 +6876,23 @@
       <c r="D116" t="s">
         <v>37</v>
       </c>
-      <c r="E116" t="s">
+      <c r="H116" t="s">
         <v>588</v>
       </c>
-      <c r="F116" s="5">
+      <c r="I116" s="5">
         <v>18371127</v>
       </c>
-      <c r="G116" t="s">
+      <c r="J116" t="s">
         <v>589</v>
       </c>
-      <c r="H116" s="5">
+      <c r="K116" s="5">
         <v>18410702</v>
       </c>
-      <c r="I116" t="s">
+      <c r="L116" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>591</v>
       </c>
@@ -6730,23 +6902,23 @@
       <c r="C117" t="s">
         <v>319</v>
       </c>
-      <c r="E117" t="s">
+      <c r="H117" t="s">
         <v>593</v>
       </c>
-      <c r="F117" s="5">
+      <c r="I117" s="5">
         <v>18360609</v>
       </c>
-      <c r="G117" t="s">
+      <c r="J117" t="s">
         <v>594</v>
       </c>
-      <c r="H117" s="5">
+      <c r="K117" s="5">
         <v>18390912</v>
       </c>
-      <c r="I117" t="s">
+      <c r="L117" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>596</v>
       </c>
@@ -6759,23 +6931,23 @@
       <c r="D118" t="s">
         <v>599</v>
       </c>
-      <c r="E118" t="s">
+      <c r="H118" t="s">
         <v>600</v>
       </c>
-      <c r="F118" s="5">
+      <c r="I118" s="5">
         <v>18320220</v>
       </c>
-      <c r="G118" t="s">
+      <c r="J118" t="s">
         <v>601</v>
       </c>
-      <c r="H118" s="5">
+      <c r="K118" s="5">
         <v>18421130</v>
       </c>
-      <c r="I118" t="s">
+      <c r="L118" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>603</v>
       </c>
@@ -6785,23 +6957,23 @@
       <c r="C119" t="s">
         <v>296</v>
       </c>
-      <c r="E119" t="s">
+      <c r="H119" t="s">
         <v>605</v>
       </c>
-      <c r="F119" s="5">
+      <c r="I119" s="5">
         <v>18360520</v>
       </c>
-      <c r="G119" t="s">
+      <c r="J119" t="s">
         <v>606</v>
       </c>
-      <c r="H119" s="5">
+      <c r="K119" s="5">
         <v>18440227</v>
       </c>
-      <c r="I119" t="s">
+      <c r="L119" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>608</v>
       </c>
@@ -6814,23 +6986,23 @@
       <c r="D120" t="s">
         <v>17</v>
       </c>
-      <c r="E120" t="s">
+      <c r="H120" t="s">
         <v>610</v>
       </c>
-      <c r="F120" s="5">
+      <c r="I120" s="5">
         <v>18371215</v>
       </c>
-      <c r="G120" t="s">
+      <c r="J120" t="s">
         <v>611</v>
       </c>
-      <c r="H120" s="5">
+      <c r="K120" s="5">
         <v>18400206</v>
       </c>
-      <c r="I120" t="s">
+      <c r="L120" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>613</v>
       </c>
@@ -6843,23 +7015,23 @@
       <c r="D121" t="s">
         <v>54</v>
       </c>
-      <c r="E121" t="s">
+      <c r="H121" t="s">
         <v>615</v>
       </c>
-      <c r="F121" s="5">
+      <c r="I121" s="5">
         <v>18370901</v>
       </c>
-      <c r="G121" t="s">
+      <c r="J121" t="s">
         <v>616</v>
       </c>
-      <c r="H121" s="5">
+      <c r="K121" s="5">
         <v>18410821</v>
       </c>
-      <c r="I121" t="s">
+      <c r="L121" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>618</v>
       </c>
@@ -6869,23 +7041,23 @@
       <c r="C122" t="s">
         <v>296</v>
       </c>
-      <c r="E122" t="s">
+      <c r="H122" t="s">
         <v>620</v>
       </c>
-      <c r="F122" s="5">
+      <c r="I122" s="5">
         <v>18360325</v>
       </c>
-      <c r="G122" t="s">
+      <c r="J122" t="s">
         <v>621</v>
       </c>
-      <c r="H122" s="5">
+      <c r="K122" s="5">
         <v>18400215</v>
       </c>
-      <c r="I122" t="s">
+      <c r="L122" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>623</v>
       </c>
@@ -6895,23 +7067,23 @@
       <c r="C123" t="s">
         <v>319</v>
       </c>
-      <c r="E123" t="s">
+      <c r="H123" t="s">
         <v>268</v>
       </c>
-      <c r="F123" s="5">
+      <c r="I123" s="5">
         <v>18371125</v>
       </c>
-      <c r="G123" t="s">
+      <c r="J123" t="s">
         <v>625</v>
       </c>
-      <c r="H123" s="5">
+      <c r="K123" s="5">
         <v>18400331</v>
       </c>
-      <c r="I123" t="s">
+      <c r="L123" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>627</v>
       </c>
@@ -6924,23 +7096,23 @@
       <c r="D124" t="s">
         <v>37</v>
       </c>
-      <c r="E124" t="s">
+      <c r="H124" t="s">
         <v>629</v>
       </c>
-      <c r="F124" s="5">
+      <c r="I124" s="5">
         <v>18380118</v>
       </c>
-      <c r="G124" t="s">
+      <c r="J124" t="s">
         <v>630</v>
       </c>
-      <c r="H124" s="5">
+      <c r="K124" s="5">
         <v>18410604</v>
       </c>
-      <c r="I124" t="s">
+      <c r="L124" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>632</v>
       </c>
@@ -6950,23 +7122,23 @@
       <c r="C125" t="s">
         <v>634</v>
       </c>
-      <c r="E125" t="s">
+      <c r="H125" t="s">
         <v>542</v>
       </c>
-      <c r="F125" s="5">
+      <c r="I125" s="5">
         <v>18380531</v>
       </c>
-      <c r="G125" t="s">
+      <c r="J125" t="s">
         <v>213</v>
       </c>
-      <c r="H125" s="5">
+      <c r="K125" s="5">
         <v>18430630</v>
       </c>
-      <c r="I125" t="s">
+      <c r="L125" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>636</v>
       </c>
@@ -6979,23 +7151,23 @@
       <c r="D126" t="s">
         <v>165</v>
       </c>
-      <c r="E126" t="s">
+      <c r="H126" t="s">
         <v>638</v>
       </c>
-      <c r="F126" s="5">
+      <c r="I126" s="5">
         <v>18380810</v>
       </c>
-      <c r="G126" t="s">
+      <c r="J126" t="s">
         <v>639</v>
       </c>
-      <c r="H126" s="5">
+      <c r="K126" s="5">
         <v>18411112</v>
       </c>
-      <c r="I126" t="s">
+      <c r="L126" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>641</v>
       </c>
@@ -7008,23 +7180,23 @@
       <c r="D127" t="s">
         <v>165</v>
       </c>
-      <c r="E127" t="s">
+      <c r="H127" t="s">
         <v>409</v>
       </c>
-      <c r="F127" s="5">
+      <c r="I127" s="5">
         <v>18370407</v>
       </c>
-      <c r="G127" t="s">
+      <c r="J127" t="s">
         <v>643</v>
       </c>
-      <c r="H127" s="5">
+      <c r="K127" s="5">
         <v>18410706</v>
       </c>
-      <c r="I127" t="s">
+      <c r="L127" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>645</v>
       </c>
@@ -7034,23 +7206,23 @@
       <c r="C128" t="s">
         <v>296</v>
       </c>
-      <c r="E128" t="s">
+      <c r="H128" t="s">
         <v>12</v>
       </c>
-      <c r="F128" s="5">
+      <c r="I128" s="5">
         <v>18380101</v>
       </c>
-      <c r="G128" t="s">
+      <c r="J128" t="s">
         <v>646</v>
       </c>
-      <c r="H128" s="5">
+      <c r="K128" s="5">
         <v>18400213</v>
       </c>
-      <c r="I128" t="s">
+      <c r="L128" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>648</v>
       </c>
@@ -7063,23 +7235,23 @@
       <c r="D129" t="s">
         <v>232</v>
       </c>
-      <c r="E129" t="s">
+      <c r="H129" t="s">
         <v>650</v>
       </c>
-      <c r="F129" s="5">
+      <c r="I129" s="5">
         <v>18351125</v>
       </c>
-      <c r="G129" t="s">
+      <c r="J129" t="s">
         <v>651</v>
       </c>
-      <c r="H129" s="5">
+      <c r="K129" s="5">
         <v>18450331</v>
       </c>
-      <c r="I129" t="s">
+      <c r="L129" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>653</v>
       </c>
@@ -7092,23 +7264,23 @@
       <c r="D130" t="s">
         <v>37</v>
       </c>
-      <c r="E130" t="s">
+      <c r="H130" t="s">
         <v>655</v>
       </c>
-      <c r="F130" s="5">
+      <c r="I130" s="5">
         <v>18380809</v>
       </c>
-      <c r="G130" t="s">
+      <c r="J130" t="s">
         <v>656</v>
       </c>
-      <c r="H130" s="5">
+      <c r="K130" s="5">
         <v>18430509</v>
       </c>
-      <c r="I130" t="s">
+      <c r="L130" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>658</v>
       </c>
@@ -7118,23 +7290,23 @@
       <c r="C131" t="s">
         <v>319</v>
       </c>
-      <c r="E131" t="s">
+      <c r="H131" t="s">
         <v>560</v>
       </c>
-      <c r="F131" s="5">
+      <c r="I131" s="5">
         <v>18360716</v>
       </c>
-      <c r="G131" t="s">
+      <c r="J131" t="s">
         <v>660</v>
       </c>
-      <c r="H131" s="5">
+      <c r="K131" s="5">
         <v>18390731</v>
       </c>
-      <c r="I131" t="s">
+      <c r="L131" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>662</v>
       </c>
@@ -7147,23 +7319,23 @@
       <c r="D132" t="s">
         <v>54</v>
       </c>
-      <c r="E132" t="s">
+      <c r="H132" t="s">
         <v>664</v>
       </c>
-      <c r="F132" s="5">
+      <c r="I132" s="5">
         <v>18370831</v>
       </c>
-      <c r="G132" t="s">
+      <c r="J132" t="s">
         <v>665</v>
       </c>
-      <c r="H132" s="5">
+      <c r="K132" s="5">
         <v>18420514</v>
       </c>
-      <c r="I132" t="s">
+      <c r="L132" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>667</v>
       </c>
@@ -7176,23 +7348,23 @@
       <c r="D133" t="s">
         <v>54</v>
       </c>
-      <c r="E133" t="s">
+      <c r="H133" t="s">
         <v>669</v>
       </c>
-      <c r="F133" s="5">
+      <c r="I133" s="5">
         <v>18370211</v>
       </c>
-      <c r="G133" t="s">
+      <c r="J133" t="s">
         <v>670</v>
       </c>
-      <c r="H133" s="5">
+      <c r="K133" s="5">
         <v>18410727</v>
       </c>
-      <c r="I133" t="s">
+      <c r="L133" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>672</v>
       </c>
@@ -7205,23 +7377,23 @@
       <c r="D134" t="s">
         <v>17</v>
       </c>
-      <c r="E134" t="s">
+      <c r="H134" t="s">
         <v>674</v>
       </c>
-      <c r="F134" s="5">
+      <c r="I134" s="5">
         <v>18370714</v>
       </c>
-      <c r="G134" t="s">
+      <c r="J134" t="s">
         <v>675</v>
       </c>
-      <c r="H134" s="5">
+      <c r="K134" s="5">
         <v>18401030</v>
       </c>
-      <c r="I134" t="s">
+      <c r="L134" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>677</v>
       </c>
@@ -7234,23 +7406,23 @@
       <c r="D135" t="s">
         <v>165</v>
       </c>
-      <c r="E135" t="s">
+      <c r="H135" t="s">
         <v>679</v>
       </c>
-      <c r="F135" s="5">
+      <c r="I135" s="5">
         <v>18370422</v>
       </c>
-      <c r="G135" t="s">
+      <c r="J135" t="s">
         <v>680</v>
       </c>
-      <c r="H135" s="5">
+      <c r="K135" s="5">
         <v>18411004</v>
       </c>
-      <c r="I135" t="s">
+      <c r="L135" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>682</v>
       </c>
@@ -7260,23 +7432,23 @@
       <c r="C136" t="s">
         <v>296</v>
       </c>
-      <c r="E136" t="s">
+      <c r="H136" t="s">
         <v>684</v>
       </c>
-      <c r="F136" s="5">
+      <c r="I136" s="5">
         <v>18380116</v>
       </c>
-      <c r="G136" t="s">
+      <c r="J136" t="s">
         <v>685</v>
       </c>
-      <c r="H136" s="5">
+      <c r="K136" s="5">
         <v>18400512</v>
       </c>
-      <c r="I136" t="s">
+      <c r="L136" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>687</v>
       </c>
@@ -7289,23 +7461,23 @@
       <c r="D137" t="s">
         <v>165</v>
       </c>
-      <c r="E137" t="s">
+      <c r="H137" t="s">
         <v>689</v>
       </c>
-      <c r="F137" s="5">
+      <c r="I137" s="5">
         <v>18380811</v>
       </c>
-      <c r="G137" t="s">
+      <c r="J137" t="s">
         <v>690</v>
       </c>
-      <c r="H137" s="5">
+      <c r="K137" s="5">
         <v>18420709</v>
       </c>
-      <c r="I137" t="s">
+      <c r="L137" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>692</v>
       </c>
@@ -7318,23 +7490,23 @@
       <c r="D138" t="s">
         <v>165</v>
       </c>
-      <c r="E138" t="s">
+      <c r="H138" t="s">
         <v>694</v>
       </c>
-      <c r="F138" s="5">
+      <c r="I138" s="5">
         <v>18380830</v>
       </c>
-      <c r="G138" t="s">
+      <c r="J138" t="s">
         <v>480</v>
       </c>
-      <c r="H138" s="5">
+      <c r="K138" s="5">
         <v>18400930</v>
       </c>
-      <c r="I138" t="s">
+      <c r="L138" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>696</v>
       </c>
@@ -7347,23 +7519,23 @@
       <c r="D139" t="s">
         <v>17</v>
       </c>
-      <c r="E139" t="s">
+      <c r="H139" t="s">
         <v>698</v>
       </c>
-      <c r="F139" s="5">
+      <c r="I139" s="5">
         <v>18360415</v>
       </c>
-      <c r="G139" t="s">
+      <c r="J139" t="s">
         <v>699</v>
       </c>
-      <c r="H139" s="5">
+      <c r="K139" s="5">
         <v>18410410</v>
       </c>
-      <c r="I139" t="s">
+      <c r="L139" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>701</v>
       </c>
@@ -7373,23 +7545,23 @@
       <c r="C140" t="s">
         <v>302</v>
       </c>
-      <c r="E140" t="s">
+      <c r="H140" t="s">
         <v>703</v>
       </c>
-      <c r="F140" s="5">
+      <c r="I140" s="5">
         <v>18361028</v>
       </c>
-      <c r="G140" t="s">
+      <c r="J140" t="s">
         <v>704</v>
       </c>
-      <c r="H140" s="5">
+      <c r="K140" s="5">
         <v>18410825</v>
       </c>
-      <c r="I140" t="s">
+      <c r="L140" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>706</v>
       </c>
@@ -7402,23 +7574,23 @@
       <c r="D141" t="s">
         <v>165</v>
       </c>
-      <c r="E141" t="s">
+      <c r="H141" t="s">
         <v>708</v>
       </c>
-      <c r="F141" s="5">
+      <c r="I141" s="5">
         <v>18370307</v>
       </c>
-      <c r="G141" t="s">
+      <c r="J141" t="s">
         <v>339</v>
       </c>
-      <c r="H141" s="5">
+      <c r="K141" s="5">
         <v>18390307</v>
       </c>
-      <c r="I141" t="s">
+      <c r="L141" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>710</v>
       </c>
@@ -7431,23 +7603,23 @@
       <c r="D142" t="s">
         <v>37</v>
       </c>
-      <c r="E142" t="s">
+      <c r="H142" t="s">
         <v>712</v>
       </c>
-      <c r="F142" s="5">
+      <c r="I142" s="5">
         <v>18381025</v>
       </c>
-      <c r="G142" t="s">
+      <c r="J142" t="s">
         <v>713</v>
       </c>
-      <c r="H142" s="5">
+      <c r="K142" s="5">
         <v>18410720</v>
       </c>
-      <c r="I142" t="s">
+      <c r="L142" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>715</v>
       </c>
@@ -7460,23 +7632,23 @@
       <c r="D143" t="s">
         <v>165</v>
       </c>
-      <c r="E143" t="s">
+      <c r="H143" t="s">
         <v>717</v>
       </c>
-      <c r="F143" s="5">
+      <c r="I143" s="5">
         <v>18381024</v>
       </c>
-      <c r="G143" t="s">
+      <c r="J143" t="s">
         <v>718</v>
       </c>
-      <c r="H143" s="5">
+      <c r="K143" s="5">
         <v>18410223</v>
       </c>
-      <c r="I143" t="s">
+      <c r="L143" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>720</v>
       </c>
@@ -7489,23 +7661,23 @@
       <c r="D144" t="s">
         <v>37</v>
       </c>
-      <c r="E144" t="s">
+      <c r="H144" t="s">
         <v>722</v>
       </c>
-      <c r="F144" s="5">
+      <c r="I144" s="5">
         <v>18370610</v>
       </c>
-      <c r="G144" t="s">
+      <c r="J144" t="s">
         <v>723</v>
       </c>
-      <c r="H144" s="5">
+      <c r="K144" s="5">
         <v>18411128</v>
       </c>
-      <c r="I144" t="s">
+      <c r="L144" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>725</v>
       </c>
@@ -7518,23 +7690,23 @@
       <c r="D145" t="s">
         <v>165</v>
       </c>
-      <c r="E145" t="s">
+      <c r="H145" t="s">
         <v>727</v>
       </c>
-      <c r="F145" s="5">
+      <c r="I145" s="5">
         <v>18351214</v>
       </c>
-      <c r="G145" t="s">
+      <c r="J145" t="s">
         <v>728</v>
       </c>
-      <c r="H145" s="5">
+      <c r="K145" s="5">
         <v>18391113</v>
       </c>
-      <c r="I145" t="s">
+      <c r="L145" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>730</v>
       </c>
@@ -7547,23 +7719,23 @@
       <c r="D146" t="s">
         <v>165</v>
       </c>
-      <c r="E146" t="s">
+      <c r="H146" t="s">
         <v>732</v>
       </c>
-      <c r="F146" s="5">
+      <c r="I146" s="5">
         <v>18361014</v>
       </c>
-      <c r="G146" t="s">
+      <c r="J146" t="s">
         <v>733</v>
       </c>
-      <c r="H146" s="5">
+      <c r="K146" s="5">
         <v>18401217</v>
       </c>
-      <c r="I146" t="s">
+      <c r="L146" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>735</v>
       </c>
@@ -7576,23 +7748,23 @@
       <c r="D147" t="s">
         <v>165</v>
       </c>
-      <c r="E147" t="s">
+      <c r="H147" t="s">
         <v>737</v>
       </c>
-      <c r="F147" s="5">
+      <c r="I147" s="5">
         <v>18380320</v>
       </c>
-      <c r="G147" t="s">
+      <c r="J147" t="s">
         <v>738</v>
       </c>
-      <c r="H147" s="5">
+      <c r="K147" s="5">
         <v>18400927</v>
       </c>
-      <c r="I147" t="s">
+      <c r="L147" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>740</v>
       </c>
@@ -7605,23 +7777,23 @@
       <c r="D148" t="s">
         <v>165</v>
       </c>
-      <c r="E148" t="s">
+      <c r="H148" t="s">
         <v>742</v>
       </c>
-      <c r="F148" s="5">
+      <c r="I148" s="5">
         <v>18381109</v>
       </c>
-      <c r="G148" t="s">
+      <c r="J148" t="s">
         <v>743</v>
       </c>
-      <c r="H148" s="5">
+      <c r="K148" s="5">
         <v>18401010</v>
       </c>
-      <c r="I148" t="s">
+      <c r="L148" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>745</v>
       </c>
@@ -7634,23 +7806,23 @@
       <c r="D149" t="s">
         <v>232</v>
       </c>
-      <c r="E149" t="s">
+      <c r="H149" t="s">
         <v>747</v>
       </c>
-      <c r="F149" s="5">
+      <c r="I149" s="5">
         <v>18351117</v>
       </c>
-      <c r="G149" t="s">
+      <c r="J149" t="s">
         <v>748</v>
       </c>
-      <c r="H149" s="5">
+      <c r="K149" s="5">
         <v>18411115</v>
       </c>
-      <c r="I149" t="s">
+      <c r="L149" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>750</v>
       </c>
@@ -7663,23 +7835,23 @@
       <c r="D150" t="s">
         <v>17</v>
       </c>
-      <c r="E150" t="s">
+      <c r="H150" t="s">
         <v>752</v>
       </c>
-      <c r="F150" s="5">
+      <c r="I150" s="5">
         <v>18381201</v>
       </c>
-      <c r="G150" t="s">
+      <c r="J150" t="s">
         <v>753</v>
       </c>
-      <c r="H150" s="5">
+      <c r="K150" s="5">
         <v>18401210</v>
       </c>
-      <c r="I150" t="s">
+      <c r="L150" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>755</v>
       </c>
@@ -7689,23 +7861,23 @@
       <c r="C151" t="s">
         <v>302</v>
       </c>
-      <c r="E151" t="s">
+      <c r="H151" t="s">
         <v>757</v>
       </c>
-      <c r="F151" s="5">
+      <c r="I151" s="5">
         <v>18361128</v>
       </c>
-      <c r="G151" t="s">
+      <c r="J151" t="s">
         <v>758</v>
       </c>
-      <c r="H151" s="5">
+      <c r="K151" s="5">
         <v>18410421</v>
       </c>
-      <c r="I151" t="s">
+      <c r="L151" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>760</v>
       </c>
@@ -7718,23 +7890,23 @@
       <c r="D152" t="s">
         <v>227</v>
       </c>
-      <c r="E152" t="s">
+      <c r="H152" t="s">
         <v>762</v>
       </c>
-      <c r="F152" s="5">
+      <c r="I152" s="5">
         <v>18380301</v>
       </c>
-      <c r="G152" t="s">
+      <c r="J152" t="s">
         <v>240</v>
       </c>
-      <c r="H152" s="5">
+      <c r="K152" s="5">
         <v>18400811</v>
       </c>
-      <c r="I152" t="s">
+      <c r="L152" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>764</v>
       </c>
@@ -7747,23 +7919,23 @@
       <c r="D153" t="s">
         <v>766</v>
       </c>
-      <c r="E153" t="s">
+      <c r="H153" t="s">
         <v>767</v>
       </c>
-      <c r="F153" s="5">
+      <c r="I153" s="5">
         <v>18380617</v>
       </c>
-      <c r="G153" t="s">
+      <c r="J153" t="s">
         <v>391</v>
       </c>
-      <c r="H153" s="5">
+      <c r="K153" s="5">
         <v>18400630</v>
       </c>
-      <c r="I153" t="s">
+      <c r="L153" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>769</v>
       </c>
@@ -7773,23 +7945,23 @@
       <c r="C154" t="s">
         <v>296</v>
       </c>
-      <c r="E154" t="s">
+      <c r="H154" t="s">
         <v>771</v>
       </c>
-      <c r="F154" s="5">
+      <c r="I154" s="5">
         <v>18360321</v>
       </c>
-      <c r="G154" t="s">
+      <c r="J154" t="s">
         <v>772</v>
       </c>
-      <c r="H154" s="5">
+      <c r="K154" s="5">
         <v>18400103</v>
       </c>
-      <c r="I154" t="s">
+      <c r="L154" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>774</v>
       </c>
@@ -7799,23 +7971,23 @@
       <c r="C155" t="s">
         <v>296</v>
       </c>
-      <c r="E155" t="s">
+      <c r="H155" t="s">
         <v>776</v>
       </c>
-      <c r="F155" s="5">
+      <c r="I155" s="5">
         <v>18380324</v>
       </c>
-      <c r="G155" t="s">
+      <c r="J155" t="s">
         <v>625</v>
       </c>
-      <c r="H155" s="5">
+      <c r="K155" s="5">
         <v>18400331</v>
       </c>
-      <c r="I155" t="s">
+      <c r="L155" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>778</v>
       </c>
@@ -7828,52 +8000,52 @@
       <c r="D156" t="s">
         <v>17</v>
       </c>
-      <c r="E156" t="s">
+      <c r="H156" t="s">
         <v>780</v>
       </c>
-      <c r="F156" s="5">
+      <c r="I156" s="5">
         <v>18380203</v>
       </c>
-      <c r="G156" t="s">
+      <c r="J156" t="s">
         <v>781</v>
       </c>
-      <c r="H156" s="5">
+      <c r="K156" s="5">
         <v>18420503</v>
       </c>
-      <c r="I156" t="s">
+      <c r="L156" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="1" t="s">
         <v>319</v>
       </c>
       <c r="D157" t="s">
         <v>24</v>
       </c>
-      <c r="E157" t="s">
+      <c r="H157" t="s">
         <v>785</v>
       </c>
-      <c r="F157" s="5">
+      <c r="I157" s="5">
         <v>18370909</v>
       </c>
-      <c r="G157" t="s">
+      <c r="J157" t="s">
         <v>786</v>
       </c>
-      <c r="H157" s="5">
+      <c r="K157" s="5">
         <v>18410710</v>
       </c>
-      <c r="I157" t="s">
+      <c r="L157" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>788</v>
       </c>
@@ -7883,23 +8055,23 @@
       <c r="C158" t="s">
         <v>296</v>
       </c>
-      <c r="E158" t="s">
+      <c r="H158" t="s">
         <v>790</v>
       </c>
-      <c r="F158" s="5">
+      <c r="I158" s="5">
         <v>18360628</v>
       </c>
-      <c r="G158" t="s">
+      <c r="J158" t="s">
         <v>791</v>
       </c>
-      <c r="H158" s="5">
+      <c r="K158" s="5">
         <v>18400101</v>
       </c>
-      <c r="I158" t="s">
+      <c r="L158" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>793</v>
       </c>
@@ -7912,23 +8084,23 @@
       <c r="D159" t="s">
         <v>165</v>
       </c>
-      <c r="E159" t="s">
+      <c r="H159" t="s">
         <v>795</v>
       </c>
-      <c r="F159" s="5">
+      <c r="I159" s="5">
         <v>18380620</v>
       </c>
-      <c r="G159" t="s">
+      <c r="J159" t="s">
         <v>796</v>
       </c>
-      <c r="H159" s="5">
+      <c r="K159" s="5">
         <v>18390323</v>
       </c>
-      <c r="I159" t="s">
+      <c r="L159" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>798</v>
       </c>
@@ -7938,23 +8110,23 @@
       <c r="C160" t="s">
         <v>296</v>
       </c>
-      <c r="E160" t="s">
+      <c r="H160" t="s">
         <v>800</v>
       </c>
-      <c r="F160" s="5">
+      <c r="I160" s="5">
         <v>18370919</v>
       </c>
-      <c r="G160" t="s">
+      <c r="J160" t="s">
         <v>801</v>
       </c>
-      <c r="H160" s="5">
+      <c r="K160" s="5">
         <v>18411123</v>
       </c>
-      <c r="I160" t="s">
+      <c r="L160" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>803</v>
       </c>
@@ -7964,23 +8136,23 @@
       <c r="C161" t="s">
         <v>296</v>
       </c>
-      <c r="E161" t="s">
+      <c r="H161" t="s">
         <v>805</v>
       </c>
-      <c r="F161" s="5">
+      <c r="I161" s="5">
         <v>18360318</v>
       </c>
-      <c r="G161" t="s">
+      <c r="J161" t="s">
         <v>806</v>
       </c>
-      <c r="H161" s="5">
+      <c r="K161" s="5">
         <v>18400401</v>
       </c>
-      <c r="I161" t="s">
+      <c r="L161" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>808</v>
       </c>
@@ -7990,23 +8162,23 @@
       <c r="C162" t="s">
         <v>319</v>
       </c>
-      <c r="E162" t="s">
+      <c r="H162" t="s">
         <v>810</v>
       </c>
-      <c r="F162" s="5">
+      <c r="I162" s="5">
         <v>18371202</v>
       </c>
-      <c r="G162" t="s">
+      <c r="J162" t="s">
         <v>811</v>
       </c>
-      <c r="H162" s="5">
+      <c r="K162" s="5">
         <v>18420714</v>
       </c>
-      <c r="I162" t="s">
+      <c r="L162" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>813</v>
       </c>
@@ -8019,23 +8191,23 @@
       <c r="D163" t="s">
         <v>37</v>
       </c>
-      <c r="E163" t="s">
+      <c r="H163" t="s">
         <v>815</v>
       </c>
-      <c r="F163" s="5">
+      <c r="I163" s="5">
         <v>18370317</v>
       </c>
-      <c r="G163" t="s">
+      <c r="J163" t="s">
         <v>816</v>
       </c>
-      <c r="H163" s="5">
+      <c r="K163" s="5">
         <v>18390318</v>
       </c>
-      <c r="I163" t="s">
+      <c r="L163" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>818</v>
       </c>
@@ -8045,23 +8217,23 @@
       <c r="C164" t="s">
         <v>308</v>
       </c>
-      <c r="E164" t="s">
+      <c r="H164" t="s">
         <v>820</v>
       </c>
-      <c r="F164" s="5">
+      <c r="I164" s="5">
         <v>18371201</v>
       </c>
-      <c r="G164" t="s">
+      <c r="J164" t="s">
         <v>821</v>
       </c>
-      <c r="H164" s="5">
+      <c r="K164" s="5">
         <v>18410520</v>
       </c>
-      <c r="I164" t="s">
+      <c r="L164" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>823</v>
       </c>
@@ -8071,23 +8243,23 @@
       <c r="C165" t="s">
         <v>296</v>
       </c>
-      <c r="E165" t="s">
+      <c r="H165" t="s">
         <v>825</v>
       </c>
-      <c r="F165" s="5">
+      <c r="I165" s="5">
         <v>18361207</v>
       </c>
-      <c r="G165" t="s">
+      <c r="J165" t="s">
         <v>826</v>
       </c>
-      <c r="H165" s="5">
+      <c r="K165" s="5">
         <v>18390125</v>
       </c>
-      <c r="I165" t="s">
+      <c r="L165" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>828</v>
       </c>
@@ -8100,23 +8272,23 @@
       <c r="D166" t="s">
         <v>320</v>
       </c>
-      <c r="E166" t="s">
+      <c r="H166" t="s">
         <v>830</v>
       </c>
-      <c r="F166" s="5">
+      <c r="I166" s="5">
         <v>18350810</v>
       </c>
-      <c r="G166" t="s">
+      <c r="J166" t="s">
         <v>831</v>
       </c>
-      <c r="H166" s="5">
+      <c r="K166" s="5">
         <v>18390802</v>
       </c>
-      <c r="I166" t="s">
+      <c r="L166" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>833</v>
       </c>
@@ -8129,23 +8301,23 @@
       <c r="D167" t="s">
         <v>37</v>
       </c>
-      <c r="E167" t="s">
+      <c r="H167" t="s">
         <v>835</v>
       </c>
-      <c r="F167" s="5">
+      <c r="I167" s="5">
         <v>18380428</v>
       </c>
-      <c r="G167" t="s">
+      <c r="J167" t="s">
         <v>836</v>
       </c>
-      <c r="H167" s="5">
+      <c r="K167" s="5">
         <v>18420512</v>
       </c>
-      <c r="I167" t="s">
+      <c r="L167" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>838</v>
       </c>
@@ -8158,23 +8330,23 @@
       <c r="D168" t="s">
         <v>165</v>
       </c>
-      <c r="E168" t="s">
+      <c r="H168" t="s">
         <v>840</v>
       </c>
-      <c r="F168" s="5">
+      <c r="I168" s="5">
         <v>18380901</v>
       </c>
-      <c r="G168" t="s">
+      <c r="J168" t="s">
         <v>841</v>
       </c>
-      <c r="H168" s="5">
+      <c r="K168" s="5">
         <v>18410904</v>
       </c>
-      <c r="I168" t="s">
+      <c r="L168" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>843</v>
       </c>
@@ -8187,29 +8359,39 @@
       <c r="D169" t="s">
         <v>165</v>
       </c>
-      <c r="E169" t="s">
+      <c r="H169" t="s">
         <v>845</v>
       </c>
-      <c r="F169" s="5">
+      <c r="I169" s="5">
         <v>18390107</v>
       </c>
-      <c r="G169" t="s">
+      <c r="J169" t="s">
         <v>718</v>
       </c>
-      <c r="H169" s="5">
+      <c r="K169" s="5">
         <v>18410223</v>
       </c>
-      <c r="I169" t="s">
+      <c r="L169" t="s">
         <v>846</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Lisbon">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Particular">
+      <formula>NOT(ISERROR(SEARCH("Particular",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Lisbon">
       <formula>NOT(ISERROR(SEARCH("Lisbon",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Particular">
-      <formula>NOT(ISERROR(SEARCH("Particular",C1)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Survey">
+      <formula>NOT(ISERROR(SEARCH("Survey",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:G1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
